--- a/outputs/chemical/diff_chem_total_aidres_idees_eurostat.xlsx
+++ b/outputs/chemical/diff_chem_total_aidres_idees_eurostat.xlsx
@@ -749,7 +749,7 @@
         <v>107.55</v>
       </c>
       <c r="D17">
-        <v>102.44</v>
+        <v>101.38</v>
       </c>
       <c r="E17">
         <v>88.26895338230261</v>
@@ -890,7 +890,7 @@
         <v>283.715</v>
       </c>
       <c r="D23">
-        <v>490.55</v>
+        <v>489.5</v>
       </c>
       <c r="E23">
         <v>447.6857262748034</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>4.29</v>
+        <v>4.12</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>19.37</v>
+        <v>19.2</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>31.4</v>
+        <v>35.01</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -3299,7 +3299,7 @@
         <v>35.39</v>
       </c>
       <c r="D127">
-        <v>166.56</v>
+        <v>168.97</v>
       </c>
       <c r="E127">
         <v>119.2784215832591</v>
@@ -3344,7 +3344,7 @@
         <v>352.37</v>
       </c>
       <c r="D129">
-        <v>488.24</v>
+        <v>487.51</v>
       </c>
       <c r="E129">
         <v>352.8330057532032</v>
@@ -3440,7 +3440,7 @@
         <v>409.4946</v>
       </c>
       <c r="D133">
-        <v>773.96</v>
+        <v>779.25</v>
       </c>
       <c r="E133">
         <v>548.9204682486784</v>
@@ -3974,7 +3974,7 @@
         <v>0.0825</v>
       </c>
       <c r="D156">
-        <v>3.22</v>
+        <v>3.18</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>4.83</v>
+        <v>4.99</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>9.59</v>
+        <v>9.58</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -4205,7 +4205,7 @@
         <v>0.0825</v>
       </c>
       <c r="D166">
-        <v>17.65</v>
+        <v>17.75</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -5597,7 +5597,7 @@
         <v>125.25</v>
       </c>
       <c r="D226">
-        <v>546.04</v>
+        <v>545.71</v>
       </c>
       <c r="E226">
         <v>523.434916618764</v>
@@ -5693,7 +5693,7 @@
         <v>194.4525</v>
       </c>
       <c r="D230">
-        <v>828.58</v>
+        <v>828.24</v>
       </c>
       <c r="E230">
         <v>795.1959436495174</v>
